--- a/Modello/nuovi modelli/inputTesiOriginali/grafici/grafico-dmu-1.xlsx
+++ b/Modello/nuovi modelli/inputTesiOriginali/grafici/grafico-dmu-1.xlsx
@@ -7,352 +7,392 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
-    <sheet name="ANNO1" sheetId="1" r:id="rId1"/>
+    <sheet name="DMU" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="ADDITIVE_1">ANNO1!$B$2</definedName>
-    <definedName name="ADDITIVE_10">ANNO1!$B$10</definedName>
-    <definedName name="ADDITIVE_11">ANNO1!$B$11</definedName>
-    <definedName name="ADDITIVE_12">ANNO1!$B$12</definedName>
-    <definedName name="ADDITIVE_13">ANNO1!$B$13</definedName>
-    <definedName name="ADDITIVE_14">ANNO1!$B$14</definedName>
-    <definedName name="ADDITIVE_15">ANNO1!$B$15</definedName>
-    <definedName name="ADDITIVE_16">ANNO1!$B$16</definedName>
-    <definedName name="ADDITIVE_18">ANNO1!$B$17</definedName>
-    <definedName name="ADDITIVE_19">ANNO1!$B$18</definedName>
-    <definedName name="ADDITIVE_2">ANNO1!$B$3</definedName>
-    <definedName name="ADDITIVE_20">ANNO1!$B$19</definedName>
-    <definedName name="ADDITIVE_21">ANNO1!$B$20</definedName>
-    <definedName name="ADDITIVE_22">ANNO1!$B$21</definedName>
-    <definedName name="ADDITIVE_23">ANNO1!$B$22</definedName>
-    <definedName name="ADDITIVE_24">ANNO1!$B$23</definedName>
-    <definedName name="ADDITIVE_25">ANNO1!$B$24</definedName>
-    <definedName name="ADDITIVE_27">ANNO1!$B$25</definedName>
-    <definedName name="ADDITIVE_28">ANNO1!$B$26</definedName>
-    <definedName name="ADDITIVE_29">ANNO1!$B$27</definedName>
-    <definedName name="ADDITIVE_3">ANNO1!$B$4</definedName>
-    <definedName name="ADDITIVE_30">ANNO1!$B$28</definedName>
-    <definedName name="ADDITIVE_31">ANNO1!$B$29</definedName>
-    <definedName name="ADDITIVE_32">ANNO1!$B$30</definedName>
-    <definedName name="ADDITIVE_33">ANNO1!$B$31</definedName>
-    <definedName name="ADDITIVE_34">ANNO1!$B$32</definedName>
-    <definedName name="ADDITIVE_36">ANNO1!$B$33</definedName>
-    <definedName name="ADDITIVE_37">ANNO1!$B$34</definedName>
-    <definedName name="ADDITIVE_38">ANNO1!$B$35</definedName>
-    <definedName name="ADDITIVE_39">ANNO1!$B$36</definedName>
-    <definedName name="ADDITIVE_4">ANNO1!$B$5</definedName>
-    <definedName name="ADDITIVE_40">ANNO1!$B$37</definedName>
-    <definedName name="ADDITIVE_41">ANNO1!$B$38</definedName>
-    <definedName name="ADDITIVE_42">ANNO1!$B$39</definedName>
-    <definedName name="ADDITIVE_43">ANNO1!$B$40</definedName>
-    <definedName name="ADDITIVE_45">ANNO1!$B$41</definedName>
-    <definedName name="ADDITIVE_46">ANNO1!$B$42</definedName>
-    <definedName name="ADDITIVE_47">ANNO1!$B$43</definedName>
-    <definedName name="ADDITIVE_48">ANNO1!$B$44</definedName>
-    <definedName name="ADDITIVE_49">ANNO1!$B$45</definedName>
-    <definedName name="ADDITIVE_5">ANNO1!$B$6</definedName>
-    <definedName name="ADDITIVE_50">ANNO1!$B$46</definedName>
-    <definedName name="ADDITIVE_51">ANNO1!$B$47</definedName>
-    <definedName name="ADDITIVE_52">ANNO1!$B$48</definedName>
-    <definedName name="ADDITIVE_54">ANNO1!$B$49</definedName>
-    <definedName name="ADDITIVE_6">ANNO1!$B$7</definedName>
-    <definedName name="ADDITIVE_7">ANNO1!$B$8</definedName>
-    <definedName name="ADDITIVE_9">ANNO1!$B$9</definedName>
-    <definedName name="BCC_1">ANNO1!$C$2</definedName>
-    <definedName name="BCC_10">ANNO1!$C$10</definedName>
-    <definedName name="BCC_11">ANNO1!$C$11</definedName>
-    <definedName name="BCC_12">ANNO1!$C$12</definedName>
-    <definedName name="BCC_13">ANNO1!$C$13</definedName>
-    <definedName name="BCC_14">ANNO1!$C$14</definedName>
-    <definedName name="BCC_15">ANNO1!$C$15</definedName>
-    <definedName name="BCC_16">ANNO1!$C$16</definedName>
-    <definedName name="BCC_18">ANNO1!$C$17</definedName>
-    <definedName name="BCC_19">ANNO1!$C$18</definedName>
-    <definedName name="BCC_2">ANNO1!$C$3</definedName>
-    <definedName name="BCC_20">ANNO1!$C$19</definedName>
-    <definedName name="BCC_21">ANNO1!$C$20</definedName>
-    <definedName name="BCC_22">ANNO1!$C$21</definedName>
-    <definedName name="BCC_23">ANNO1!$C$22</definedName>
-    <definedName name="BCC_24">ANNO1!$C$23</definedName>
-    <definedName name="BCC_25">ANNO1!$C$24</definedName>
-    <definedName name="BCC_27">ANNO1!$C$25</definedName>
-    <definedName name="BCC_28">ANNO1!$C$26</definedName>
-    <definedName name="BCC_29">ANNO1!$C$27</definedName>
-    <definedName name="BCC_3">ANNO1!$C$4</definedName>
-    <definedName name="BCC_30">ANNO1!$C$28</definedName>
-    <definedName name="BCC_31">ANNO1!$C$29</definedName>
-    <definedName name="BCC_32">ANNO1!$C$30</definedName>
-    <definedName name="BCC_33">ANNO1!$C$31</definedName>
-    <definedName name="BCC_34">ANNO1!$C$32</definedName>
-    <definedName name="BCC_36">ANNO1!$C$33</definedName>
-    <definedName name="BCC_37">ANNO1!$C$34</definedName>
-    <definedName name="BCC_38">ANNO1!$C$35</definedName>
-    <definedName name="BCC_39">ANNO1!$C$36</definedName>
-    <definedName name="BCC_4">ANNO1!$C$5</definedName>
-    <definedName name="BCC_40">ANNO1!$C$37</definedName>
-    <definedName name="BCC_41">ANNO1!$C$38</definedName>
-    <definedName name="BCC_42">ANNO1!$C$39</definedName>
-    <definedName name="BCC_43">ANNO1!$C$40</definedName>
-    <definedName name="BCC_45">ANNO1!$C$41</definedName>
-    <definedName name="BCC_46">ANNO1!$C$42</definedName>
-    <definedName name="BCC_47">ANNO1!$C$43</definedName>
-    <definedName name="BCC_48">ANNO1!$C$44</definedName>
-    <definedName name="BCC_49">ANNO1!$C$45</definedName>
-    <definedName name="BCC_5">ANNO1!$C$6</definedName>
-    <definedName name="BCC_50">ANNO1!$C$46</definedName>
-    <definedName name="BCC_51">ANNO1!$C$47</definedName>
-    <definedName name="BCC_52">ANNO1!$C$48</definedName>
-    <definedName name="BCC_54">ANNO1!$C$49</definedName>
-    <definedName name="BCC_6">ANNO1!$C$7</definedName>
-    <definedName name="BCC_7">ANNO1!$C$8</definedName>
-    <definedName name="BCC_9">ANNO1!$C$9</definedName>
-    <definedName name="BCC_O1">ANNO1!$D$2</definedName>
-    <definedName name="BCC_O10">ANNO1!$D$10</definedName>
-    <definedName name="BCC_O11">ANNO1!$D$11</definedName>
-    <definedName name="BCC_O12">ANNO1!$D$12</definedName>
-    <definedName name="BCC_O13">ANNO1!$D$13</definedName>
-    <definedName name="BCC_O14">ANNO1!$D$14</definedName>
-    <definedName name="BCC_O15">ANNO1!$D$15</definedName>
-    <definedName name="BCC_O16">ANNO1!$D$16</definedName>
-    <definedName name="BCC_O18">ANNO1!$D$17</definedName>
-    <definedName name="BCC_O19">ANNO1!$D$18</definedName>
-    <definedName name="BCC_O2">ANNO1!$D$3</definedName>
-    <definedName name="BCC_O20">ANNO1!$D$19</definedName>
-    <definedName name="BCC_O21">ANNO1!$D$20</definedName>
-    <definedName name="BCC_O22">ANNO1!$D$21</definedName>
-    <definedName name="BCC_O23">ANNO1!$D$22</definedName>
-    <definedName name="BCC_O24">ANNO1!$D$23</definedName>
-    <definedName name="BCC_O25">ANNO1!$D$24</definedName>
-    <definedName name="BCC_O27">ANNO1!$D$25</definedName>
-    <definedName name="BCC_O28">ANNO1!$D$26</definedName>
-    <definedName name="BCC_O29">ANNO1!$D$27</definedName>
-    <definedName name="BCC_O3">ANNO1!$D$4</definedName>
-    <definedName name="BCC_O30">ANNO1!$D$28</definedName>
-    <definedName name="BCC_O31">ANNO1!$D$29</definedName>
-    <definedName name="BCC_O32">ANNO1!$D$30</definedName>
-    <definedName name="BCC_O33">ANNO1!$D$31</definedName>
-    <definedName name="BCC_O34">ANNO1!$D$32</definedName>
-    <definedName name="BCC_O36">ANNO1!$D$33</definedName>
-    <definedName name="BCC_O37">ANNO1!$D$34</definedName>
-    <definedName name="BCC_O38">ANNO1!$D$35</definedName>
-    <definedName name="BCC_O39">ANNO1!$D$36</definedName>
-    <definedName name="BCC_O4">ANNO1!$D$5</definedName>
-    <definedName name="BCC_O40">ANNO1!$D$37</definedName>
-    <definedName name="BCC_O41">ANNO1!$D$38</definedName>
-    <definedName name="BCC_O42">ANNO1!$D$39</definedName>
-    <definedName name="BCC_O43">ANNO1!$D$40</definedName>
-    <definedName name="BCC_O45">ANNO1!$D$41</definedName>
-    <definedName name="BCC_O46">ANNO1!$D$42</definedName>
-    <definedName name="BCC_O47">ANNO1!$D$43</definedName>
-    <definedName name="BCC_O48">ANNO1!$D$44</definedName>
-    <definedName name="BCC_O49">ANNO1!$D$45</definedName>
-    <definedName name="BCC_O5">ANNO1!$D$6</definedName>
-    <definedName name="BCC_O50">ANNO1!$D$46</definedName>
-    <definedName name="BCC_O51">ANNO1!$D$47</definedName>
-    <definedName name="BCC_O52">ANNO1!$D$48</definedName>
-    <definedName name="BCC_O54">ANNO1!$D$49</definedName>
-    <definedName name="BCC_O6">ANNO1!$D$7</definedName>
-    <definedName name="BCC_O7">ANNO1!$D$8</definedName>
-    <definedName name="BCC_O9">ANNO1!$D$9</definedName>
-    <definedName name="CCR_1">ANNO1!$E$2</definedName>
-    <definedName name="CCR_10">ANNO1!$E$10</definedName>
-    <definedName name="CCR_11">ANNO1!$E$11</definedName>
-    <definedName name="CCR_12">ANNO1!$E$12</definedName>
-    <definedName name="CCR_13">ANNO1!$E$13</definedName>
-    <definedName name="CCR_14">ANNO1!$E$14</definedName>
-    <definedName name="CCR_15">ANNO1!$E$15</definedName>
-    <definedName name="CCR_16">ANNO1!$E$16</definedName>
-    <definedName name="CCR_18">ANNO1!$E$17</definedName>
-    <definedName name="CCR_19">ANNO1!$E$18</definedName>
-    <definedName name="CCR_2">ANNO1!$E$3</definedName>
-    <definedName name="CCR_20">ANNO1!$E$19</definedName>
-    <definedName name="CCR_21">ANNO1!$E$20</definedName>
-    <definedName name="CCR_22">ANNO1!$E$21</definedName>
-    <definedName name="CCR_23">ANNO1!$E$22</definedName>
-    <definedName name="CCR_24">ANNO1!$E$23</definedName>
-    <definedName name="CCR_25">ANNO1!$E$24</definedName>
-    <definedName name="CCR_27">ANNO1!$E$25</definedName>
-    <definedName name="CCR_28">ANNO1!$E$26</definedName>
-    <definedName name="CCR_29">ANNO1!$E$27</definedName>
-    <definedName name="CCR_3">ANNO1!$E$4</definedName>
-    <definedName name="CCR_30">ANNO1!$E$28</definedName>
-    <definedName name="CCR_31">ANNO1!$E$29</definedName>
-    <definedName name="CCR_32">ANNO1!$E$30</definedName>
-    <definedName name="CCR_33">ANNO1!$E$31</definedName>
-    <definedName name="CCR_34">ANNO1!$E$32</definedName>
-    <definedName name="CCR_36">ANNO1!$E$33</definedName>
-    <definedName name="CCR_37">ANNO1!$E$34</definedName>
-    <definedName name="CCR_38">ANNO1!$E$35</definedName>
-    <definedName name="CCR_39">ANNO1!$E$36</definedName>
-    <definedName name="CCR_4">ANNO1!$E$5</definedName>
-    <definedName name="CCR_40">ANNO1!$E$37</definedName>
-    <definedName name="CCR_41">ANNO1!$E$38</definedName>
-    <definedName name="CCR_42">ANNO1!$E$39</definedName>
-    <definedName name="CCR_43">ANNO1!$E$40</definedName>
-    <definedName name="CCR_45">ANNO1!$E$41</definedName>
-    <definedName name="CCR_46">ANNO1!$E$42</definedName>
-    <definedName name="CCR_47">ANNO1!$E$43</definedName>
-    <definedName name="CCR_48">ANNO1!$E$44</definedName>
-    <definedName name="CCR_49">ANNO1!$E$45</definedName>
-    <definedName name="CCR_5">ANNO1!$E$6</definedName>
-    <definedName name="CCR_50">ANNO1!$E$46</definedName>
-    <definedName name="CCR_51">ANNO1!$E$47</definedName>
-    <definedName name="CCR_52">ANNO1!$E$48</definedName>
-    <definedName name="CCR_54">ANNO1!$E$49</definedName>
-    <definedName name="CCR_6">ANNO1!$E$7</definedName>
-    <definedName name="CCR_7">ANNO1!$E$8</definedName>
-    <definedName name="CCR_9">ANNO1!$E$9</definedName>
-    <definedName name="CCR_O1">ANNO1!$F$2</definedName>
-    <definedName name="CCR_O10">ANNO1!$F$10</definedName>
-    <definedName name="CCR_O11">ANNO1!$F$11</definedName>
-    <definedName name="CCR_O12">ANNO1!$F$12</definedName>
-    <definedName name="CCR_O13">ANNO1!$F$13</definedName>
-    <definedName name="CCR_O14">ANNO1!$F$14</definedName>
-    <definedName name="CCR_O15">ANNO1!$F$15</definedName>
-    <definedName name="CCR_O16">ANNO1!$F$16</definedName>
-    <definedName name="CCR_O18">ANNO1!$F$17</definedName>
-    <definedName name="CCR_O19">ANNO1!$F$18</definedName>
-    <definedName name="CCR_O2">ANNO1!$F$3</definedName>
-    <definedName name="CCR_O20">ANNO1!$F$19</definedName>
-    <definedName name="CCR_O21">ANNO1!$F$20</definedName>
-    <definedName name="CCR_O22">ANNO1!$F$21</definedName>
-    <definedName name="CCR_O23">ANNO1!$F$22</definedName>
-    <definedName name="CCR_O24">ANNO1!$F$23</definedName>
-    <definedName name="CCR_O25">ANNO1!$F$24</definedName>
-    <definedName name="CCR_O27">ANNO1!$F$25</definedName>
-    <definedName name="CCR_O28">ANNO1!$F$26</definedName>
-    <definedName name="CCR_O29">ANNO1!$F$27</definedName>
-    <definedName name="CCR_O3">ANNO1!$F$4</definedName>
-    <definedName name="CCR_O30">ANNO1!$F$28</definedName>
-    <definedName name="CCR_O31">ANNO1!$F$29</definedName>
-    <definedName name="CCR_O32">ANNO1!$F$30</definedName>
-    <definedName name="CCR_O33">ANNO1!$F$31</definedName>
-    <definedName name="CCR_O34">ANNO1!$F$32</definedName>
-    <definedName name="CCR_O36">ANNO1!$F$33</definedName>
-    <definedName name="CCR_O37">ANNO1!$F$34</definedName>
-    <definedName name="CCR_O38">ANNO1!$F$35</definedName>
-    <definedName name="CCR_O39">ANNO1!$F$36</definedName>
-    <definedName name="CCR_O4">ANNO1!$F$5</definedName>
-    <definedName name="CCR_O40">ANNO1!$F$37</definedName>
-    <definedName name="CCR_O41">ANNO1!$F$38</definedName>
-    <definedName name="CCR_O42">ANNO1!$F$39</definedName>
-    <definedName name="CCR_O43">ANNO1!$F$40</definedName>
-    <definedName name="CCR_O45">ANNO1!$F$41</definedName>
-    <definedName name="CCR_O46">ANNO1!$F$42</definedName>
-    <definedName name="CCR_O47">ANNO1!$F$43</definedName>
-    <definedName name="CCR_O48">ANNO1!$F$44</definedName>
-    <definedName name="CCR_O49">ANNO1!$F$45</definedName>
-    <definedName name="CCR_O5">ANNO1!$F$6</definedName>
-    <definedName name="CCR_O50">ANNO1!$F$46</definedName>
-    <definedName name="CCR_O51">ANNO1!$F$47</definedName>
-    <definedName name="CCR_O52">ANNO1!$F$48</definedName>
-    <definedName name="CCR_O54">ANNO1!$F$49</definedName>
-    <definedName name="CCR_O6">ANNO1!$F$7</definedName>
-    <definedName name="CCR_O7">ANNO1!$F$8</definedName>
-    <definedName name="CCR_O9">ANNO1!$F$9</definedName>
-    <definedName name="HYBRID_1">ANNO1!$H$2</definedName>
-    <definedName name="HYBRID_10">ANNO1!$H$10</definedName>
-    <definedName name="HYBRID_11">ANNO1!$H$11</definedName>
-    <definedName name="HYBRID_12">ANNO1!$H$12</definedName>
-    <definedName name="HYBRID_13">ANNO1!$H$13</definedName>
-    <definedName name="HYBRID_14">ANNO1!$H$14</definedName>
-    <definedName name="HYBRID_15">ANNO1!$H$15</definedName>
-    <definedName name="HYBRID_16">ANNO1!$H$16</definedName>
-    <definedName name="HYBRID_18">ANNO1!$H$17</definedName>
-    <definedName name="HYBRID_19">ANNO1!$H$18</definedName>
-    <definedName name="HYBRID_2">ANNO1!$H$3</definedName>
-    <definedName name="HYBRID_20">ANNO1!$H$19</definedName>
-    <definedName name="HYBRID_21">ANNO1!$H$20</definedName>
-    <definedName name="HYBRID_22">ANNO1!$H$21</definedName>
-    <definedName name="HYBRID_23">ANNO1!$H$22</definedName>
-    <definedName name="HYBRID_24">ANNO1!$H$23</definedName>
-    <definedName name="HYBRID_25">ANNO1!$H$24</definedName>
-    <definedName name="HYBRID_27">ANNO1!$H$25</definedName>
-    <definedName name="HYBRID_28">ANNO1!$H$26</definedName>
-    <definedName name="HYBRID_29">ANNO1!$H$27</definedName>
-    <definedName name="HYBRID_3">ANNO1!$H$4</definedName>
-    <definedName name="HYBRID_30">ANNO1!$H$28</definedName>
-    <definedName name="HYBRID_31">ANNO1!$H$29</definedName>
-    <definedName name="HYBRID_32">ANNO1!$H$30</definedName>
-    <definedName name="HYBRID_33">ANNO1!$H$31</definedName>
-    <definedName name="HYBRID_34">ANNO1!$H$32</definedName>
-    <definedName name="HYBRID_36">ANNO1!$H$33</definedName>
-    <definedName name="HYBRID_37">ANNO1!$H$34</definedName>
-    <definedName name="HYBRID_38">ANNO1!$H$35</definedName>
-    <definedName name="HYBRID_39">ANNO1!$H$36</definedName>
-    <definedName name="HYBRID_4">ANNO1!$H$5</definedName>
-    <definedName name="HYBRID_40">ANNO1!$H$37</definedName>
-    <definedName name="HYBRID_41">ANNO1!$H$38</definedName>
-    <definedName name="HYBRID_42">ANNO1!$H$39</definedName>
-    <definedName name="HYBRID_43">ANNO1!$H$40</definedName>
-    <definedName name="HYBRID_45">ANNO1!$H$41</definedName>
-    <definedName name="HYBRID_46">ANNO1!$H$42</definedName>
-    <definedName name="HYBRID_47">ANNO1!$H$43</definedName>
-    <definedName name="HYBRID_48">ANNO1!$H$44</definedName>
-    <definedName name="HYBRID_49">ANNO1!$H$45</definedName>
-    <definedName name="HYBRID_5">ANNO1!$H$6</definedName>
-    <definedName name="HYBRID_50">ANNO1!$H$46</definedName>
-    <definedName name="HYBRID_51">ANNO1!$H$47</definedName>
-    <definedName name="HYBRID_52">ANNO1!$H$48</definedName>
-    <definedName name="HYBRID_54">ANNO1!$H$49</definedName>
-    <definedName name="HYBRID_6">ANNO1!$H$7</definedName>
-    <definedName name="HYBRID_7">ANNO1!$H$8</definedName>
-    <definedName name="HYBRID_9">ANNO1!$H$9</definedName>
-    <definedName name="SBM_1">ANNO1!$G$2</definedName>
-    <definedName name="SBM_10">ANNO1!$G$10</definedName>
-    <definedName name="SBM_11">ANNO1!$G$11</definedName>
-    <definedName name="SBM_12">ANNO1!$G$12</definedName>
-    <definedName name="SBM_13">ANNO1!$G$13</definedName>
-    <definedName name="SBM_14">ANNO1!$G$14</definedName>
-    <definedName name="SBM_15">ANNO1!$G$15</definedName>
-    <definedName name="SBM_16">ANNO1!$G$16</definedName>
-    <definedName name="SBM_18">ANNO1!$G$17</definedName>
-    <definedName name="SBM_19">ANNO1!$G$18</definedName>
-    <definedName name="SBM_2">ANNO1!$G$3</definedName>
-    <definedName name="SBM_20">ANNO1!$G$19</definedName>
-    <definedName name="SBM_21">ANNO1!$G$20</definedName>
-    <definedName name="SBM_22">ANNO1!$G$21</definedName>
-    <definedName name="SBM_23">ANNO1!$G$22</definedName>
-    <definedName name="SBM_24">ANNO1!$G$23</definedName>
-    <definedName name="SBM_25">ANNO1!$G$24</definedName>
-    <definedName name="SBM_27">ANNO1!$G$25</definedName>
-    <definedName name="SBM_28">ANNO1!$G$26</definedName>
-    <definedName name="SBM_29">ANNO1!$G$27</definedName>
-    <definedName name="SBM_3">ANNO1!$G$4</definedName>
-    <definedName name="SBM_30">ANNO1!$G$28</definedName>
-    <definedName name="SBM_31">ANNO1!$G$29</definedName>
-    <definedName name="SBM_32">ANNO1!$G$30</definedName>
-    <definedName name="SBM_33">ANNO1!$G$31</definedName>
-    <definedName name="SBM_34">ANNO1!$G$32</definedName>
-    <definedName name="SBM_36">ANNO1!$G$33</definedName>
-    <definedName name="SBM_37">ANNO1!$G$34</definedName>
-    <definedName name="SBM_38">ANNO1!$G$35</definedName>
-    <definedName name="SBM_39">ANNO1!$G$36</definedName>
-    <definedName name="SBM_4">ANNO1!$G$5</definedName>
-    <definedName name="SBM_40">ANNO1!$G$37</definedName>
-    <definedName name="SBM_41">ANNO1!$G$38</definedName>
-    <definedName name="SBM_42">ANNO1!$G$39</definedName>
-    <definedName name="SBM_43">ANNO1!$G$40</definedName>
-    <definedName name="SBM_45">ANNO1!$G$41</definedName>
-    <definedName name="SBM_46">ANNO1!$G$42</definedName>
-    <definedName name="SBM_47">ANNO1!$G$43</definedName>
-    <definedName name="SBM_48">ANNO1!$G$44</definedName>
-    <definedName name="SBM_49">ANNO1!$G$45</definedName>
-    <definedName name="SBM_5">ANNO1!$G$6</definedName>
-    <definedName name="SBM_50">ANNO1!$G$46</definedName>
-    <definedName name="SBM_51">ANNO1!$G$47</definedName>
-    <definedName name="SBM_52">ANNO1!$G$48</definedName>
-    <definedName name="SBM_54">ANNO1!$G$49</definedName>
-    <definedName name="SBM_6">ANNO1!$G$7</definedName>
-    <definedName name="SBM_7">ANNO1!$G$8</definedName>
-    <definedName name="SBM_9">ANNO1!$G$9</definedName>
+    <definedName name="ADDITIVE_1">DMU!$B$2</definedName>
+    <definedName name="ADDITIVE_10">DMU!$B$10</definedName>
+    <definedName name="ADDITIVE_11">DMU!$B$11</definedName>
+    <definedName name="ADDITIVE_12">DMU!$B$12</definedName>
+    <definedName name="ADDITIVE_13">DMU!$B$13</definedName>
+    <definedName name="ADDITIVE_14">DMU!$B$14</definedName>
+    <definedName name="ADDITIVE_15">DMU!$B$15</definedName>
+    <definedName name="ADDITIVE_16">DMU!$B$16</definedName>
+    <definedName name="ADDITIVE_18">DMU!$B$17</definedName>
+    <definedName name="ADDITIVE_19">DMU!$B$18</definedName>
+    <definedName name="ADDITIVE_2">DMU!$B$3</definedName>
+    <definedName name="ADDITIVE_20">DMU!$B$19</definedName>
+    <definedName name="ADDITIVE_21">DMU!$B$20</definedName>
+    <definedName name="ADDITIVE_22">DMU!$B$21</definedName>
+    <definedName name="ADDITIVE_23">DMU!$B$22</definedName>
+    <definedName name="ADDITIVE_24">DMU!$B$23</definedName>
+    <definedName name="ADDITIVE_25">DMU!$B$24</definedName>
+    <definedName name="ADDITIVE_27">DMU!$B$25</definedName>
+    <definedName name="ADDITIVE_28">DMU!$B$26</definedName>
+    <definedName name="ADDITIVE_29">DMU!$B$27</definedName>
+    <definedName name="ADDITIVE_3">DMU!$B$4</definedName>
+    <definedName name="ADDITIVE_30">DMU!$B$28</definedName>
+    <definedName name="ADDITIVE_31">DMU!$B$29</definedName>
+    <definedName name="ADDITIVE_32">DMU!$B$30</definedName>
+    <definedName name="ADDITIVE_33">DMU!$B$31</definedName>
+    <definedName name="ADDITIVE_34">DMU!$B$32</definedName>
+    <definedName name="ADDITIVE_36">DMU!$B$33</definedName>
+    <definedName name="ADDITIVE_37">DMU!$B$34</definedName>
+    <definedName name="ADDITIVE_38">DMU!$B$35</definedName>
+    <definedName name="ADDITIVE_39">DMU!$B$36</definedName>
+    <definedName name="ADDITIVE_4">DMU!$B$5</definedName>
+    <definedName name="ADDITIVE_40">DMU!$B$37</definedName>
+    <definedName name="ADDITIVE_41">DMU!$B$38</definedName>
+    <definedName name="ADDITIVE_42">DMU!$B$39</definedName>
+    <definedName name="ADDITIVE_43">DMU!$B$40</definedName>
+    <definedName name="ADDITIVE_45">DMU!$B$41</definedName>
+    <definedName name="ADDITIVE_46">DMU!$B$42</definedName>
+    <definedName name="ADDITIVE_47">DMU!$B$43</definedName>
+    <definedName name="ADDITIVE_48">DMU!$B$44</definedName>
+    <definedName name="ADDITIVE_49">DMU!$B$45</definedName>
+    <definedName name="ADDITIVE_5">DMU!$B$6</definedName>
+    <definedName name="ADDITIVE_50">DMU!$B$46</definedName>
+    <definedName name="ADDITIVE_51">DMU!$B$47</definedName>
+    <definedName name="ADDITIVE_52">DMU!$B$48</definedName>
+    <definedName name="ADDITIVE_54">DMU!$B$49</definedName>
+    <definedName name="ADDITIVE_6">DMU!$B$7</definedName>
+    <definedName name="ADDITIVE_7">DMU!$B$8</definedName>
+    <definedName name="ADDITIVE_9">DMU!$B$9</definedName>
+    <definedName name="BCC_1">DMU!$C$2</definedName>
+    <definedName name="BCC_10">DMU!$C$10</definedName>
+    <definedName name="BCC_11">DMU!$C$11</definedName>
+    <definedName name="BCC_12">DMU!$C$12</definedName>
+    <definedName name="BCC_13">DMU!$C$13</definedName>
+    <definedName name="BCC_14">DMU!$C$14</definedName>
+    <definedName name="BCC_15">DMU!$C$15</definedName>
+    <definedName name="BCC_16">DMU!$C$16</definedName>
+    <definedName name="BCC_18">DMU!$C$17</definedName>
+    <definedName name="BCC_19">DMU!$C$18</definedName>
+    <definedName name="BCC_2">DMU!$C$3</definedName>
+    <definedName name="BCC_20">DMU!$C$19</definedName>
+    <definedName name="BCC_21">DMU!$C$20</definedName>
+    <definedName name="BCC_22">DMU!$C$21</definedName>
+    <definedName name="BCC_23">DMU!$C$22</definedName>
+    <definedName name="BCC_24">DMU!$C$23</definedName>
+    <definedName name="BCC_25">DMU!$C$24</definedName>
+    <definedName name="BCC_27">DMU!$C$25</definedName>
+    <definedName name="BCC_28">DMU!$C$26</definedName>
+    <definedName name="BCC_29">DMU!$C$27</definedName>
+    <definedName name="BCC_3">DMU!$C$4</definedName>
+    <definedName name="BCC_30">DMU!$C$28</definedName>
+    <definedName name="BCC_31">DMU!$C$29</definedName>
+    <definedName name="BCC_32">DMU!$C$30</definedName>
+    <definedName name="BCC_33">DMU!$C$31</definedName>
+    <definedName name="BCC_34">DMU!$C$32</definedName>
+    <definedName name="BCC_36">DMU!$C$33</definedName>
+    <definedName name="BCC_37">DMU!$C$34</definedName>
+    <definedName name="BCC_38">DMU!$C$35</definedName>
+    <definedName name="BCC_39">DMU!$C$36</definedName>
+    <definedName name="BCC_4">DMU!$C$5</definedName>
+    <definedName name="BCC_40">DMU!$C$37</definedName>
+    <definedName name="BCC_41">DMU!$C$38</definedName>
+    <definedName name="BCC_42">DMU!$C$39</definedName>
+    <definedName name="BCC_43">DMU!$C$40</definedName>
+    <definedName name="BCC_45">DMU!$C$41</definedName>
+    <definedName name="BCC_46">DMU!$C$42</definedName>
+    <definedName name="BCC_47">DMU!$C$43</definedName>
+    <definedName name="BCC_48">DMU!$C$44</definedName>
+    <definedName name="BCC_49">DMU!$C$45</definedName>
+    <definedName name="BCC_5">DMU!$C$6</definedName>
+    <definedName name="BCC_50">DMU!$C$46</definedName>
+    <definedName name="BCC_51">DMU!$C$47</definedName>
+    <definedName name="BCC_52">DMU!$C$48</definedName>
+    <definedName name="BCC_54">DMU!$C$49</definedName>
+    <definedName name="BCC_6">DMU!$C$7</definedName>
+    <definedName name="BCC_7">DMU!$C$8</definedName>
+    <definedName name="BCC_9">DMU!$C$9</definedName>
+    <definedName name="BCC_O1">DMU!$D$2</definedName>
+    <definedName name="BCC_O10">DMU!$D$10</definedName>
+    <definedName name="BCC_O11">DMU!$D$11</definedName>
+    <definedName name="BCC_O12">DMU!$D$12</definedName>
+    <definedName name="BCC_O13">DMU!$D$13</definedName>
+    <definedName name="BCC_O14">DMU!$D$14</definedName>
+    <definedName name="BCC_O15">DMU!$D$15</definedName>
+    <definedName name="BCC_O16">DMU!$D$16</definedName>
+    <definedName name="BCC_O18">DMU!$D$17</definedName>
+    <definedName name="BCC_O19">DMU!$D$18</definedName>
+    <definedName name="BCC_O2">DMU!$D$3</definedName>
+    <definedName name="BCC_O20">DMU!$D$19</definedName>
+    <definedName name="BCC_O21">DMU!$D$20</definedName>
+    <definedName name="BCC_O22">DMU!$D$21</definedName>
+    <definedName name="BCC_O23">DMU!$D$22</definedName>
+    <definedName name="BCC_O24">DMU!$D$23</definedName>
+    <definedName name="BCC_O25">DMU!$D$24</definedName>
+    <definedName name="BCC_O27">DMU!$D$25</definedName>
+    <definedName name="BCC_O28">DMU!$D$26</definedName>
+    <definedName name="BCC_O29">DMU!$D$27</definedName>
+    <definedName name="BCC_O3">DMU!$D$4</definedName>
+    <definedName name="BCC_O30">DMU!$D$28</definedName>
+    <definedName name="BCC_O31">DMU!$D$29</definedName>
+    <definedName name="BCC_O32">DMU!$D$30</definedName>
+    <definedName name="BCC_O33">DMU!$D$31</definedName>
+    <definedName name="BCC_O34">DMU!$D$32</definedName>
+    <definedName name="BCC_O36">DMU!$D$33</definedName>
+    <definedName name="BCC_O37">DMU!$D$34</definedName>
+    <definedName name="BCC_O38">DMU!$D$35</definedName>
+    <definedName name="BCC_O39">DMU!$D$36</definedName>
+    <definedName name="BCC_O4">DMU!$D$5</definedName>
+    <definedName name="BCC_O40">DMU!$D$37</definedName>
+    <definedName name="BCC_O41">DMU!$D$38</definedName>
+    <definedName name="BCC_O42">DMU!$D$39</definedName>
+    <definedName name="BCC_O43">DMU!$D$40</definedName>
+    <definedName name="BCC_O45">DMU!$D$41</definedName>
+    <definedName name="BCC_O46">DMU!$D$42</definedName>
+    <definedName name="BCC_O47">DMU!$D$43</definedName>
+    <definedName name="BCC_O48">DMU!$D$44</definedName>
+    <definedName name="BCC_O49">DMU!$D$45</definedName>
+    <definedName name="BCC_O5">DMU!$D$6</definedName>
+    <definedName name="BCC_O50">DMU!$D$46</definedName>
+    <definedName name="BCC_O51">DMU!$D$47</definedName>
+    <definedName name="BCC_O52">DMU!$D$48</definedName>
+    <definedName name="BCC_O54">DMU!$D$49</definedName>
+    <definedName name="BCC_O6">DMU!$D$7</definedName>
+    <definedName name="BCC_O7">DMU!$D$8</definedName>
+    <definedName name="BCC_O9">DMU!$D$9</definedName>
+    <definedName name="CCR_1">DMU!$E$2</definedName>
+    <definedName name="CCR_10">DMU!$E$10</definedName>
+    <definedName name="CCR_11">DMU!$E$11</definedName>
+    <definedName name="CCR_12">DMU!$E$12</definedName>
+    <definedName name="CCR_13">DMU!$E$13</definedName>
+    <definedName name="CCR_14">DMU!$E$14</definedName>
+    <definedName name="CCR_15">DMU!$E$15</definedName>
+    <definedName name="CCR_16">DMU!$E$16</definedName>
+    <definedName name="CCR_18">DMU!$E$17</definedName>
+    <definedName name="CCR_19">DMU!$E$18</definedName>
+    <definedName name="CCR_2">DMU!$E$3</definedName>
+    <definedName name="CCR_20">DMU!$E$19</definedName>
+    <definedName name="CCR_21">DMU!$E$20</definedName>
+    <definedName name="CCR_22">DMU!$E$21</definedName>
+    <definedName name="CCR_23">DMU!$E$22</definedName>
+    <definedName name="CCR_24">DMU!$E$23</definedName>
+    <definedName name="CCR_25">DMU!$E$24</definedName>
+    <definedName name="CCR_27">DMU!$E$25</definedName>
+    <definedName name="CCR_28">DMU!$E$26</definedName>
+    <definedName name="CCR_29">DMU!$E$27</definedName>
+    <definedName name="CCR_3">DMU!$E$4</definedName>
+    <definedName name="CCR_30">DMU!$E$28</definedName>
+    <definedName name="CCR_31">DMU!$E$29</definedName>
+    <definedName name="CCR_32">DMU!$E$30</definedName>
+    <definedName name="CCR_33">DMU!$E$31</definedName>
+    <definedName name="CCR_34">DMU!$E$32</definedName>
+    <definedName name="CCR_36">DMU!$E$33</definedName>
+    <definedName name="CCR_37">DMU!$E$34</definedName>
+    <definedName name="CCR_38">DMU!$E$35</definedName>
+    <definedName name="CCR_39">DMU!$E$36</definedName>
+    <definedName name="CCR_4">DMU!$E$5</definedName>
+    <definedName name="CCR_40">DMU!$E$37</definedName>
+    <definedName name="CCR_41">DMU!$E$38</definedName>
+    <definedName name="CCR_42">DMU!$E$39</definedName>
+    <definedName name="CCR_43">DMU!$E$40</definedName>
+    <definedName name="CCR_45">DMU!$E$41</definedName>
+    <definedName name="CCR_46">DMU!$E$42</definedName>
+    <definedName name="CCR_47">DMU!$E$43</definedName>
+    <definedName name="CCR_48">DMU!$E$44</definedName>
+    <definedName name="CCR_49">DMU!$E$45</definedName>
+    <definedName name="CCR_5">DMU!$E$6</definedName>
+    <definedName name="CCR_50">DMU!$E$46</definedName>
+    <definedName name="CCR_51">DMU!$E$47</definedName>
+    <definedName name="CCR_52">DMU!$E$48</definedName>
+    <definedName name="CCR_54">DMU!$E$49</definedName>
+    <definedName name="CCR_6">DMU!$E$7</definedName>
+    <definedName name="CCR_7">DMU!$E$8</definedName>
+    <definedName name="CCR_9">DMU!$E$9</definedName>
+    <definedName name="CCR_O1">DMU!$F$2</definedName>
+    <definedName name="CCR_O10">DMU!$F$10</definedName>
+    <definedName name="CCR_O11">DMU!$F$11</definedName>
+    <definedName name="CCR_O12">DMU!$F$12</definedName>
+    <definedName name="CCR_O13">DMU!$F$13</definedName>
+    <definedName name="CCR_O14">DMU!$F$14</definedName>
+    <definedName name="CCR_O15">DMU!$F$15</definedName>
+    <definedName name="CCR_O16">DMU!$F$16</definedName>
+    <definedName name="CCR_O18">DMU!$F$17</definedName>
+    <definedName name="CCR_O19">DMU!$F$18</definedName>
+    <definedName name="CCR_O2">DMU!$F$3</definedName>
+    <definedName name="CCR_O20">DMU!$F$19</definedName>
+    <definedName name="CCR_O21">DMU!$F$20</definedName>
+    <definedName name="CCR_O22">DMU!$F$21</definedName>
+    <definedName name="CCR_O23">DMU!$F$22</definedName>
+    <definedName name="CCR_O24">DMU!$F$23</definedName>
+    <definedName name="CCR_O25">DMU!$F$24</definedName>
+    <definedName name="CCR_O27">DMU!$F$25</definedName>
+    <definedName name="CCR_O28">DMU!$F$26</definedName>
+    <definedName name="CCR_O29">DMU!$F$27</definedName>
+    <definedName name="CCR_O3">DMU!$F$4</definedName>
+    <definedName name="CCR_O30">DMU!$F$28</definedName>
+    <definedName name="CCR_O31">DMU!$F$29</definedName>
+    <definedName name="CCR_O32">DMU!$F$30</definedName>
+    <definedName name="CCR_O33">DMU!$F$31</definedName>
+    <definedName name="CCR_O34">DMU!$F$32</definedName>
+    <definedName name="CCR_O36">DMU!$F$33</definedName>
+    <definedName name="CCR_O37">DMU!$F$34</definedName>
+    <definedName name="CCR_O38">DMU!$F$35</definedName>
+    <definedName name="CCR_O39">DMU!$F$36</definedName>
+    <definedName name="CCR_O4">DMU!$F$5</definedName>
+    <definedName name="CCR_O40">DMU!$F$37</definedName>
+    <definedName name="CCR_O41">DMU!$F$38</definedName>
+    <definedName name="CCR_O42">DMU!$F$39</definedName>
+    <definedName name="CCR_O43">DMU!$F$40</definedName>
+    <definedName name="CCR_O45">DMU!$F$41</definedName>
+    <definedName name="CCR_O46">DMU!$F$42</definedName>
+    <definedName name="CCR_O47">DMU!$F$43</definedName>
+    <definedName name="CCR_O48">DMU!$F$44</definedName>
+    <definedName name="CCR_O49">DMU!$F$45</definedName>
+    <definedName name="CCR_O5">DMU!$F$6</definedName>
+    <definedName name="CCR_O50">DMU!$F$46</definedName>
+    <definedName name="CCR_O51">DMU!$F$47</definedName>
+    <definedName name="CCR_O52">DMU!$F$48</definedName>
+    <definedName name="CCR_O54">DMU!$F$49</definedName>
+    <definedName name="CCR_O6">DMU!$F$7</definedName>
+    <definedName name="CCR_O7">DMU!$F$8</definedName>
+    <definedName name="CCR_O9">DMU!$F$9</definedName>
+    <definedName name="HYBRID_1">DMU!$H$2</definedName>
+    <definedName name="HYBRID_10">DMU!$H$10</definedName>
+    <definedName name="HYBRID_11">DMU!$H$11</definedName>
+    <definedName name="HYBRID_12">DMU!$H$12</definedName>
+    <definedName name="HYBRID_13">DMU!$H$13</definedName>
+    <definedName name="HYBRID_14">DMU!$H$14</definedName>
+    <definedName name="HYBRID_15">DMU!$H$15</definedName>
+    <definedName name="HYBRID_16">DMU!$H$16</definedName>
+    <definedName name="HYBRID_18">DMU!$H$17</definedName>
+    <definedName name="HYBRID_19">DMU!$H$18</definedName>
+    <definedName name="HYBRID_2">DMU!$H$3</definedName>
+    <definedName name="HYBRID_20">DMU!$H$19</definedName>
+    <definedName name="HYBRID_21">DMU!$H$20</definedName>
+    <definedName name="HYBRID_22">DMU!$H$21</definedName>
+    <definedName name="HYBRID_23">DMU!$H$22</definedName>
+    <definedName name="HYBRID_24">DMU!$H$23</definedName>
+    <definedName name="HYBRID_25">DMU!$H$24</definedName>
+    <definedName name="HYBRID_27">DMU!$H$25</definedName>
+    <definedName name="HYBRID_28">DMU!$H$26</definedName>
+    <definedName name="HYBRID_29">DMU!$H$27</definedName>
+    <definedName name="HYBRID_3">DMU!$H$4</definedName>
+    <definedName name="HYBRID_30">DMU!$H$28</definedName>
+    <definedName name="HYBRID_31">DMU!$H$29</definedName>
+    <definedName name="HYBRID_32">DMU!$H$30</definedName>
+    <definedName name="HYBRID_33">DMU!$H$31</definedName>
+    <definedName name="HYBRID_34">DMU!$H$32</definedName>
+    <definedName name="HYBRID_36">DMU!$H$33</definedName>
+    <definedName name="HYBRID_37">DMU!$H$34</definedName>
+    <definedName name="HYBRID_38">DMU!$H$35</definedName>
+    <definedName name="HYBRID_39">DMU!$H$36</definedName>
+    <definedName name="HYBRID_4">DMU!$H$5</definedName>
+    <definedName name="HYBRID_40">DMU!$H$37</definedName>
+    <definedName name="HYBRID_41">DMU!$H$38</definedName>
+    <definedName name="HYBRID_42">DMU!$H$39</definedName>
+    <definedName name="HYBRID_43">DMU!$H$40</definedName>
+    <definedName name="HYBRID_45">DMU!$H$41</definedName>
+    <definedName name="HYBRID_46">DMU!$H$42</definedName>
+    <definedName name="HYBRID_47">DMU!$H$43</definedName>
+    <definedName name="HYBRID_48">DMU!$H$44</definedName>
+    <definedName name="HYBRID_49">DMU!$H$45</definedName>
+    <definedName name="HYBRID_5">DMU!$H$6</definedName>
+    <definedName name="HYBRID_50">DMU!$H$46</definedName>
+    <definedName name="HYBRID_51">DMU!$H$47</definedName>
+    <definedName name="HYBRID_52">DMU!$H$48</definedName>
+    <definedName name="HYBRID_54">DMU!$H$49</definedName>
+    <definedName name="HYBRID_6">DMU!$H$7</definedName>
+    <definedName name="HYBRID_7">DMU!$H$8</definedName>
+    <definedName name="HYBRID_9">DMU!$H$9</definedName>
+    <definedName name="MALM_1_1">DMU!$F$53</definedName>
+    <definedName name="MALM_1_2">DMU!$F$54</definedName>
+    <definedName name="MALM_1_3">DMU!$F$55</definedName>
+    <definedName name="MALM_1_4">DMU!$F$56</definedName>
+    <definedName name="MALM_1_5">DMU!$F$57</definedName>
+    <definedName name="MALM_1_6">DMU!$F$58</definedName>
+    <definedName name="MALM_1_7">DMU!$F$59</definedName>
+    <definedName name="MALM_1_9">DMU!$F$60</definedName>
+    <definedName name="MALM_2_1">DMU!$E$53</definedName>
+    <definedName name="MALM_2_2">DMU!$E$54</definedName>
+    <definedName name="MALM_2_3">DMU!$E$55</definedName>
+    <definedName name="MALM_2_4">DMU!$E$56</definedName>
+    <definedName name="MALM_2_5">DMU!$E$57</definedName>
+    <definedName name="MALM_2_6">DMU!$E$58</definedName>
+    <definedName name="MALM_2_7">DMU!$E$59</definedName>
+    <definedName name="MALM_2_9">DMU!$E$60</definedName>
+    <definedName name="MALM_3_1">DMU!$D$53</definedName>
+    <definedName name="MALM_3_2">DMU!$D$54</definedName>
+    <definedName name="MALM_3_3">DMU!$D$55</definedName>
+    <definedName name="MALM_3_4">DMU!$D$56</definedName>
+    <definedName name="MALM_3_5">DMU!$D$57</definedName>
+    <definedName name="MALM_3_6">DMU!$D$58</definedName>
+    <definedName name="MALM_3_7">DMU!$D$59</definedName>
+    <definedName name="MALM_3_9">DMU!$D$60</definedName>
+    <definedName name="MALM_4_1">DMU!$C$53</definedName>
+    <definedName name="MALM_4_2">DMU!$C$54</definedName>
+    <definedName name="MALM_4_3">DMU!$C$55</definedName>
+    <definedName name="MALM_4_4">DMU!$C$56</definedName>
+    <definedName name="MALM_4_5">DMU!$C$57</definedName>
+    <definedName name="MALM_4_6">DMU!$C$58</definedName>
+    <definedName name="MALM_4_7">DMU!$C$59</definedName>
+    <definedName name="MALM_4_9">DMU!$C$60</definedName>
+    <definedName name="MALM_5_1">DMU!$B$53</definedName>
+    <definedName name="MALM_5_2">DMU!$B$54</definedName>
+    <definedName name="MALM_5_3">DMU!$B$55</definedName>
+    <definedName name="MALM_5_4">DMU!$B$56</definedName>
+    <definedName name="MALM_5_5">DMU!$B$57</definedName>
+    <definedName name="MALM_5_6">DMU!$B$58</definedName>
+    <definedName name="MALM_5_7">DMU!$B$59</definedName>
+    <definedName name="MALM_5_9">DMU!$B$60</definedName>
+    <definedName name="SBM_1">DMU!$G$2</definedName>
+    <definedName name="SBM_10">DMU!$G$10</definedName>
+    <definedName name="SBM_11">DMU!$G$11</definedName>
+    <definedName name="SBM_12">DMU!$G$12</definedName>
+    <definedName name="SBM_13">DMU!$G$13</definedName>
+    <definedName name="SBM_14">DMU!$G$14</definedName>
+    <definedName name="SBM_15">DMU!$G$15</definedName>
+    <definedName name="SBM_16">DMU!$G$16</definedName>
+    <definedName name="SBM_18">DMU!$G$17</definedName>
+    <definedName name="SBM_19">DMU!$G$18</definedName>
+    <definedName name="SBM_2">DMU!$G$3</definedName>
+    <definedName name="SBM_20">DMU!$G$19</definedName>
+    <definedName name="SBM_21">DMU!$G$20</definedName>
+    <definedName name="SBM_22">DMU!$G$21</definedName>
+    <definedName name="SBM_23">DMU!$G$22</definedName>
+    <definedName name="SBM_24">DMU!$G$23</definedName>
+    <definedName name="SBM_25">DMU!$G$24</definedName>
+    <definedName name="SBM_27">DMU!$G$25</definedName>
+    <definedName name="SBM_28">DMU!$G$26</definedName>
+    <definedName name="SBM_29">DMU!$G$27</definedName>
+    <definedName name="SBM_3">DMU!$G$4</definedName>
+    <definedName name="SBM_30">DMU!$G$28</definedName>
+    <definedName name="SBM_31">DMU!$G$29</definedName>
+    <definedName name="SBM_32">DMU!$G$30</definedName>
+    <definedName name="SBM_33">DMU!$G$31</definedName>
+    <definedName name="SBM_34">DMU!$G$32</definedName>
+    <definedName name="SBM_36">DMU!$G$33</definedName>
+    <definedName name="SBM_37">DMU!$G$34</definedName>
+    <definedName name="SBM_38">DMU!$G$35</definedName>
+    <definedName name="SBM_39">DMU!$G$36</definedName>
+    <definedName name="SBM_4">DMU!$G$5</definedName>
+    <definedName name="SBM_40">DMU!$G$37</definedName>
+    <definedName name="SBM_41">DMU!$G$38</definedName>
+    <definedName name="SBM_42">DMU!$G$39</definedName>
+    <definedName name="SBM_43">DMU!$G$40</definedName>
+    <definedName name="SBM_45">DMU!$G$41</definedName>
+    <definedName name="SBM_46">DMU!$G$42</definedName>
+    <definedName name="SBM_47">DMU!$G$43</definedName>
+    <definedName name="SBM_48">DMU!$G$44</definedName>
+    <definedName name="SBM_49">DMU!$G$45</definedName>
+    <definedName name="SBM_5">DMU!$G$6</definedName>
+    <definedName name="SBM_50">DMU!$G$46</definedName>
+    <definedName name="SBM_51">DMU!$G$47</definedName>
+    <definedName name="SBM_52">DMU!$G$48</definedName>
+    <definedName name="SBM_54">DMU!$G$49</definedName>
+    <definedName name="SBM_6">DMU!$G$7</definedName>
+    <definedName name="SBM_7">DMU!$G$8</definedName>
+    <definedName name="SBM_9">DMU!$G$9</definedName>
   </definedNames>
   <calcPr calcId="171027" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="77">
   <si>
     <t>ADDITIVE</t>
   </si>
@@ -560,6 +600,30 @@
   <si>
     <t>Efficienza per tipologia di test</t>
   </si>
+  <si>
+    <t>Coefficiente di Malmquist</t>
+  </si>
+  <si>
+    <t>2010-11</t>
+  </si>
+  <si>
+    <t>2011-12</t>
+  </si>
+  <si>
+    <t>2012-13</t>
+  </si>
+  <si>
+    <t>2013-14</t>
+  </si>
+  <si>
+    <t>2014-15</t>
+  </si>
+  <si>
+    <t>TOTALE-ANNO</t>
+  </si>
+  <si>
+    <t>TOTALE-TEST</t>
+  </si>
 </sst>
 </file>
 
@@ -582,7 +646,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -610,6 +674,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -654,21 +724,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -719,7 +793,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>ANNO1!$C$1</c:f>
+              <c:f>DMU!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -752,7 +826,7 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>ANNO1!$C$2:$C$49</c:f>
+              <c:f>DMU!$C$2:$C$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="48"/>
@@ -771,7 +845,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>ANNO1!$D$1</c:f>
+              <c:f>DMU!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -804,7 +878,7 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>ANNO1!$D$2:$D$49</c:f>
+              <c:f>DMU!$D$2:$D$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="48"/>
@@ -823,7 +897,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>ANNO1!$E$1</c:f>
+              <c:f>DMU!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -856,7 +930,7 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>ANNO1!$E$2:$E$49</c:f>
+              <c:f>DMU!$E$2:$E$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="48"/>
@@ -875,7 +949,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>ANNO1!$F$1</c:f>
+              <c:f>DMU!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -908,7 +982,7 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>ANNO1!$F$2:$F$49</c:f>
+              <c:f>DMU!$F$2:$F$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="48"/>
@@ -927,7 +1001,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>ANNO1!$G$1</c:f>
+              <c:f>DMU!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -960,7 +1034,7 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>ANNO1!$G$2:$G$49</c:f>
+              <c:f>DMU!$G$2:$G$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="48"/>
@@ -979,7 +1053,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>ANNO1!$H$1</c:f>
+              <c:f>DMU!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1012,7 +1086,7 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>ANNO1!$H$2:$H$49</c:f>
+              <c:f>DMU!$H$2:$H$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="48"/>
@@ -1031,7 +1105,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>ANNO1!$I$1</c:f>
+              <c:f>DMU!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1068,10 +1142,154 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>ANNO1!$I$2:$I$49</c:f>
+              <c:f>DMU!$I$2:$I$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1322,7 +1540,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="it-IT" sz="1400" baseline="0"/>
-              <a:t>Risultati Test</a:t>
+              <a:t>Percentuali Efficienza Test</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1499,7 +1717,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>ANNO1!$K$24:$K$26</c:f>
+              <c:f>DMU!$K$24:$K$26</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1516,18 +1734,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ANNO1!$L$24:$L$26</c:f>
+              <c:f>DMU!$L$24:$L$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>14.285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>85.714285714285722</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1789,7 +2007,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.4034365787397435E-2"/>
+          <c:y val="0.16370527100806273"/>
+          <c:w val="0.91681752889500789"/>
+          <c:h val="0.62276850610363721"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
@@ -1799,7 +2027,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>ANNO1!$L$40</c:f>
+              <c:f>DMU!$L$40</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1820,7 +2048,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>ANNO1!$K$41:$K$48</c:f>
+              <c:f>DMU!$K$41:$K$48</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -1852,33 +2080,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ANNO1!$L$41:$L$48</c:f>
+              <c:f>DMU!$L$41:$L$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1894,7 +2122,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>ANNO1!$M$40</c:f>
+              <c:f>DMU!$M$40</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1915,7 +2143,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>ANNO1!$K$41:$K$48</c:f>
+              <c:f>DMU!$K$41:$K$48</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -1947,33 +2175,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ANNO1!$M$41:$M$48</c:f>
+              <c:f>DMU!$M$41:$M$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1989,7 +2217,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>ANNO1!$N$40</c:f>
+              <c:f>DMU!$N$40</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2010,7 +2238,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>ANNO1!$K$41:$K$48</c:f>
+              <c:f>DMU!$K$41:$K$48</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -2042,33 +2270,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ANNO1!$N$41:$N$48</c:f>
+              <c:f>DMU!$N$41:$N$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2084,7 +2312,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>ANNO1!$O$40</c:f>
+              <c:f>DMU!$O$40</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2105,7 +2333,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>ANNO1!$K$41:$K$48</c:f>
+              <c:f>DMU!$K$41:$K$48</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -2137,33 +2365,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ANNO1!$O$41:$O$48</c:f>
+              <c:f>DMU!$O$41:$O$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2179,7 +2407,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>ANNO1!$P$40</c:f>
+              <c:f>DMU!$P$40</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2200,7 +2428,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>ANNO1!$K$41:$K$48</c:f>
+              <c:f>DMU!$K$41:$K$48</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -2232,33 +2460,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ANNO1!$P$41:$P$48</c:f>
+              <c:f>DMU!$P$41:$P$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2274,7 +2502,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>ANNO1!$Q$40</c:f>
+              <c:f>DMU!$Q$40</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2295,7 +2523,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>ANNO1!$K$41:$K$48</c:f>
+              <c:f>DMU!$K$41:$K$48</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -2327,33 +2555,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ANNO1!$Q$41:$Q$48</c:f>
+              <c:f>DMU!$Q$41:$Q$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2562,6 +2790,1288 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Coefficienti</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" baseline="0"/>
+              <a:t> di Malmquist</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10337270341207348"/>
+          <c:y val="0.16708333333333336"/>
+          <c:w val="0.8966272965879265"/>
+          <c:h val="0.54380322251385238"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DMU!$A$53</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TEST-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>DMU!$B$52:$F$52</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2010-11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2011-12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2012-13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2013-14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2014-15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DMU!$B$53:$F$53</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CEE7-4CDC-88F3-202986067455}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DMU!$A$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TEST-2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>DMU!$B$52:$F$52</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2010-11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2011-12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2012-13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2013-14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2014-15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DMU!$B$54:$F$54</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CEE7-4CDC-88F3-202986067455}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DMU!$A$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TEST-3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>DMU!$B$52:$F$52</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2010-11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2011-12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2012-13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2013-14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2014-15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DMU!$B$55:$F$55</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-CEE7-4CDC-88F3-202986067455}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DMU!$A$56</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TEST-4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>DMU!$B$52:$F$52</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2010-11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2011-12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2012-13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2013-14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2014-15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DMU!$B$56:$F$56</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.69164813372359202</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-CEE7-4CDC-88F3-202986067455}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DMU!$A$57</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TEST-5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>DMU!$B$52:$F$52</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2010-11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2011-12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2012-13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2013-14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2014-15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DMU!$B$57:$F$57</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-CEE7-4CDC-88F3-202986067455}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DMU!$A$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TEST-6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>DMU!$B$52:$F$52</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2010-11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2011-12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2012-13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2013-14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2014-15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DMU!$B$58:$F$58</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-CEE7-4CDC-88F3-202986067455}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DMU!$A$59</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TEST-7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>DMU!$B$52:$F$52</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2010-11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2011-12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2012-13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2013-14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2014-15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DMU!$B$59:$F$59</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-CEE7-4CDC-88F3-202986067455}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DMU!$A$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TEST-8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>DMU!$B$52:$F$52</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2010-11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2011-12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2012-13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2013-14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2014-15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DMU!$B$60:$F$60</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-CEE7-4CDC-88F3-202986067455}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                  <a:alpha val="33000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
+        <c:smooth val="0"/>
+        <c:axId val="483882008"/>
+        <c:axId val="483875776"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="483882008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="high"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="483875776"/>
+        <c:crossesAt val="1"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="483875776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="483882008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.5"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2682,6 +4192,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4273,6 +5823,544 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="230">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" spc="20" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+            <a:alpha val="33000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor>
@@ -4283,8 +6371,8 @@
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>522514</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
@@ -4314,13 +6402,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>267789</xdr:colOff>
+      <xdr:colOff>267788</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>10887</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>500743</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>487679</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>141514</xdr:rowOff>
     </xdr:to>
@@ -4349,16 +6437,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>125185</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>132805</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>130629</xdr:rowOff>
+      <xdr:rowOff>84909</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>500742</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>4355</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>508362</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>141515</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4378,6 +6466,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Grafico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{425BECBA-3525-494F-BE25-4BB3B8929D42}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4901,24 +7025,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R49"/>
+  <dimension ref="A1:R60"/>
   <sheetViews>
-    <sheetView tabSelected="true" topLeftCell="L16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA30" sqref="AA30"/>
+    <sheetView tabSelected="true" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" customWidth="true"/>
-    <col min="2" max="2" width="9.44140625" customWidth="true"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true"/>
-    <col min="4" max="4" width="6.33203125" bestFit="true" customWidth="true"/>
-    <col min="5" max="5" width="4.33203125" bestFit="true" customWidth="true"/>
-    <col min="6" max="6" width="6.33203125" bestFit="true" customWidth="true"/>
+    <col min="1" max="1" width="14.33203125" customWidth="true"/>
+    <col min="2" max="6" width="7.6640625" bestFit="true" customWidth="true"/>
     <col min="7" max="7" width="4.6640625" bestFit="true" customWidth="true"/>
     <col min="8" max="8" width="7.21875" bestFit="true" customWidth="true"/>
     <col min="9" max="9" width="14.88671875" customWidth="true"/>
     <col min="11" max="11" width="15.33203125" customWidth="true"/>
+    <col min="18" max="18" width="12.109375" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4971,9 +7092,12 @@
         <v>0.47251516827662426</v>
       </c>
       <c r="H2" s="1">
-        <v>0.35539062446746661</v>
-      </c>
-      <c r="I2" s="1"/>
+        <v>0.71078124893493322</v>
+      </c>
+      <c r="I2" s="1">
+        <f>(B2/(MAX(B:B)+1))+1</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
@@ -4998,9 +7122,12 @@
         <v>7.5202412087775547e-010</v>
       </c>
       <c r="H3" s="1">
-        <v>0.47385416595662222</v>
-      </c>
-      <c r="I3" s="1"/>
+        <v>0.71078124893493322</v>
+      </c>
+      <c r="I3" s="1">
+        <f>(B3/(MAX(B:B)+1))+1</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
@@ -5025,9 +7152,12 @@
         <v>0.63938061397005808</v>
       </c>
       <c r="H4" s="1">
-        <v>0.35385261139632129</v>
-      </c>
-      <c r="I4" s="1"/>
+        <v>0.70770522279264259</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" ref="I4:I49" si="0">(B4/(MAX(B:B)+1))+1</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
@@ -5052,9 +7182,12 @@
         <v>0.42103647716038128</v>
       </c>
       <c r="H5" s="1">
-        <v>0.35551383299557243</v>
-      </c>
-      <c r="I5" s="1"/>
+        <v>0.71102766599114486</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
@@ -5079,9 +7212,12 @@
         <v>1.0000000000000013</v>
       </c>
       <c r="H6" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="I6" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
@@ -5106,9 +7242,12 @@
         <v>1.0000000000000004</v>
       </c>
       <c r="H7" s="1">
-        <v>0.66666666666666674</v>
-      </c>
-      <c r="I7" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
@@ -5133,9 +7272,12 @@
         <v>1</v>
       </c>
       <c r="H8" s="1">
-        <v>0.66666666666666674</v>
-      </c>
-      <c r="I8" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
@@ -5160,9 +7302,12 @@
         <v>0.50410125791011384</v>
       </c>
       <c r="H9" s="1">
-        <v>0.47385416595662222</v>
-      </c>
-      <c r="I9" s="1"/>
+        <v>0.71078124893493322</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
@@ -5187,9 +7332,12 @@
         <v>0.59353989850109667</v>
       </c>
       <c r="H10" s="1">
-        <v>0.40911575198623729</v>
-      </c>
-      <c r="I10" s="1"/>
+        <v>0.81823150397247457</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
@@ -5214,9 +7362,12 @@
         <v>1.5238462454040585e-009</v>
       </c>
       <c r="H11" s="1">
-        <v>0.54548766931498316</v>
-      </c>
-      <c r="I11" s="1"/>
+        <v>0.81823150397247457</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
@@ -5241,9 +7392,12 @@
         <v>0.66124831244037507</v>
       </c>
       <c r="H12" s="1">
-        <v>0.38337637334148938</v>
-      </c>
-      <c r="I12" s="1"/>
+        <v>0.76675274668297877</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
@@ -5268,9 +7422,12 @@
         <v>0.50039508460067517</v>
       </c>
       <c r="H13" s="1">
-        <v>0.40911575198623734</v>
-      </c>
-      <c r="I13" s="1"/>
+        <v>0.81823150397247468</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
@@ -5295,9 +7452,12 @@
         <v>1.0000000293221092</v>
       </c>
       <c r="H14" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="I14" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
@@ -5322,9 +7482,12 @@
         <v>0.99999999999999978</v>
       </c>
       <c r="H15" s="1">
-        <v>0.66666666666666674</v>
-      </c>
-      <c r="I15" s="1"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
@@ -5349,9 +7512,12 @@
         <v>1</v>
       </c>
       <c r="H16" s="1">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="I16" s="1"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
@@ -5376,9 +7542,12 @@
         <v>0.63560364472834208</v>
       </c>
       <c r="H17" s="1">
-        <v>0.54548766931498327</v>
-      </c>
-      <c r="I17" s="1"/>
+        <v>0.81823150397247457</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
@@ -5403,9 +7572,12 @@
         <v>0.55009331816949303</v>
       </c>
       <c r="H18" s="1">
-        <v>0.39667226883739426</v>
-      </c>
-      <c r="I18" s="1"/>
+        <v>0.79334453767478852</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
@@ -5430,9 +7602,12 @@
         <v>1.5074834876473171e-009</v>
       </c>
       <c r="H19" s="1">
-        <v>0.52889635844985916</v>
-      </c>
-      <c r="I19" s="1"/>
+        <v>0.79334453767478852</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
@@ -5457,9 +7632,12 @@
         <v>0.57495445217240593</v>
       </c>
       <c r="H20" s="1">
-        <v>0.38893624414468358</v>
-      </c>
-      <c r="I20" s="1"/>
+        <v>0.77787248828936717</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
@@ -5484,9 +7662,12 @@
         <v>0.47456305537186144</v>
       </c>
       <c r="H21" s="1">
-        <v>0.39667226883739426</v>
-      </c>
-      <c r="I21" s="1"/>
+        <v>0.79334453767478852</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
@@ -5511,9 +7692,12 @@
         <v>1.0000000000000004</v>
       </c>
       <c r="H22" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="I22" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="I22" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="s">
@@ -5538,13 +7722,16 @@
         <v>0.99999999999999989</v>
       </c>
       <c r="H23" s="1">
-        <v>0.66666666666666685</v>
-      </c>
-      <c r="I23" s="1"/>
-      <c r="K23" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I23" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K23" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="L23" s="6"/>
+      <c r="L23" s="9"/>
     </row>
     <row r="24">
       <c r="A24" s="3" t="s">
@@ -5569,15 +7756,18 @@
         <v>1</v>
       </c>
       <c r="H24" s="1">
-        <v>0.66666666666666696</v>
-      </c>
-      <c r="I24" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="K24" s="3" t="s">
         <v>57</v>
       </c>
       <c r="L24" s="2">
         <f>(COUNTIF(C2:I49,1)/336)*100</f>
-        <v>0</v>
+        <v>14.285714285714285</v>
       </c>
     </row>
     <row r="25">
@@ -5603,9 +7793,12 @@
         <v>0.58995357759140343</v>
       </c>
       <c r="H25" s="1">
-        <v>0.52889635844985916</v>
-      </c>
-      <c r="I25" s="1"/>
+        <v>0.79334453767478863</v>
+      </c>
+      <c r="I25" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="K25" s="3" t="s">
         <v>58</v>
       </c>
@@ -5637,15 +7830,18 @@
         <v>0.55699681954120261</v>
       </c>
       <c r="H26" s="1">
-        <v>0.36611096718232294</v>
-      </c>
-      <c r="I26" s="1"/>
+        <v>0.73222193436464589</v>
+      </c>
+      <c r="I26" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="K26" s="3" t="s">
         <v>59</v>
       </c>
       <c r="L26" s="5">
         <f>100-L25-L24</f>
-        <v>100</v>
+        <v>85.714285714285722</v>
       </c>
     </row>
     <row r="27">
@@ -5671,9 +7867,12 @@
         <v>0.1743703985436309</v>
       </c>
       <c r="H27" s="1">
-        <v>0.48814795624309726</v>
-      </c>
-      <c r="I27" s="1"/>
+        <v>0.73222193436464589</v>
+      </c>
+      <c r="I27" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="s">
@@ -5698,9 +7897,12 @@
         <v>0.4914147670197227</v>
       </c>
       <c r="H28" s="1">
-        <v>0.33810601999124335</v>
-      </c>
-      <c r="I28" s="1"/>
+        <v>0.67621203998248669</v>
+      </c>
+      <c r="I28" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="s">
@@ -5725,9 +7927,12 @@
         <v>0.47521606999742827</v>
       </c>
       <c r="H29" s="1">
-        <v>0.366110967182323</v>
-      </c>
-      <c r="I29" s="1"/>
+        <v>0.732221934364646</v>
+      </c>
+      <c r="I29" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="s">
@@ -5752,9 +7957,12 @@
         <v>0.53061906434116601</v>
       </c>
       <c r="H30" s="1">
-        <v>0.39101960969510835</v>
-      </c>
-      <c r="I30" s="1"/>
+        <v>0.7820392193902167</v>
+      </c>
+      <c r="I30" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="s">
@@ -5779,9 +7987,12 @@
         <v>0.58707388070444155</v>
       </c>
       <c r="H31" s="1">
-        <v>0.5072512123086298</v>
-      </c>
-      <c r="I31" s="1"/>
+        <v>0.76087681846294464</v>
+      </c>
+      <c r="I31" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="s">
@@ -5806,9 +8017,12 @@
         <v>0.13320108706051376</v>
       </c>
       <c r="H32" s="1">
-        <v>0.4919208801952118</v>
-      </c>
-      <c r="I32" s="1"/>
+        <v>0.73788132029281761</v>
+      </c>
+      <c r="I32" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="3" t="s">
@@ -5833,9 +8047,12 @@
         <v>0.58707388070444155</v>
       </c>
       <c r="H33" s="1">
-        <v>0.48814795624309726</v>
-      </c>
-      <c r="I33" s="1"/>
+        <v>0.73222193436464589</v>
+      </c>
+      <c r="I33" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="3" t="s">
@@ -5860,9 +8077,12 @@
         <v>0.55873746529738355</v>
       </c>
       <c r="H34" s="1">
-        <v>0.35684036300839117</v>
-      </c>
-      <c r="I34" s="1"/>
+        <v>0.71368072601678234</v>
+      </c>
+      <c r="I34" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="3" t="s">
@@ -5887,9 +8107,12 @@
         <v>0.63639048610358251</v>
       </c>
       <c r="H35" s="1">
-        <v>0.57393941062842846</v>
-      </c>
-      <c r="I35" s="1"/>
+        <v>0.86090911594264252</v>
+      </c>
+      <c r="I35" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="3" t="s">
@@ -5914,9 +8137,12 @@
         <v>0.21105027712325486</v>
       </c>
       <c r="H36" s="1">
-        <v>0.13463700187472835</v>
-      </c>
-      <c r="I36" s="1"/>
+        <v>0.2692740037494567</v>
+      </c>
+      <c r="I36" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="3" t="s">
@@ -5941,9 +8167,12 @@
         <v>0.48297927217726538</v>
       </c>
       <c r="H37" s="1">
-        <v>0.35684036300839117</v>
-      </c>
-      <c r="I37" s="1"/>
+        <v>0.71368072601678234</v>
+      </c>
+      <c r="I37" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="3" t="s">
@@ -5968,9 +8197,12 @@
         <v>0.39445534722696957</v>
       </c>
       <c r="H38" s="1">
-        <v>0.35684036300839117</v>
-      </c>
-      <c r="I38" s="1"/>
+        <v>0.71368072601678234</v>
+      </c>
+      <c r="I38" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="3" t="s">
@@ -5995,14 +8227,17 @@
         <v>0.5949574857762201</v>
       </c>
       <c r="H39" s="1">
-        <v>0.47578715067785504</v>
-      </c>
-      <c r="I39" s="1"/>
-      <c r="K39" s="6" t="s">
+        <v>0.71368072601678234</v>
+      </c>
+      <c r="I39" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K39" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="L39" s="6"/>
-      <c r="M39" s="6"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
     </row>
     <row r="40">
       <c r="A40" s="3" t="s">
@@ -6027,10 +8262,13 @@
         <v>0.026343585847632946</v>
       </c>
       <c r="H40" s="1">
-        <v>0.47669475133566991</v>
-      </c>
-      <c r="I40" s="1"/>
-      <c r="K40" s="7"/>
+        <v>0.71504212700350489</v>
+      </c>
+      <c r="I40" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K40" s="6"/>
       <c r="L40" s="3">
         <v>2010</v>
       </c>
@@ -6043,13 +8281,15 @@
       <c r="O40" s="3">
         <v>2013</v>
       </c>
-      <c r="P40" s="8">
+      <c r="P40" s="7">
         <v>2014</v>
       </c>
       <c r="Q40" s="3">
         <v>2015</v>
       </c>
-      <c r="R40" s="11"/>
+      <c r="R40" s="3" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="3" t="s">
@@ -6074,37 +8314,43 @@
         <v>0.59495748577622021</v>
       </c>
       <c r="H41" s="1">
-        <v>0.47578715067785504</v>
-      </c>
-      <c r="I41" s="1"/>
+        <v>0.71368072601678234</v>
+      </c>
+      <c r="I41" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="K41" s="3" t="s">
         <v>60</v>
       </c>
       <c r="L41" s="1">
         <f>COUNTIF(C42:I42,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M41" s="1">
         <f>COUNTIF(C34:I34,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N41" s="1">
         <f>COUNTIF(C26:I26,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O41" s="1">
         <f>COUNTIF(C18:I18,1)</f>
-        <v>0</v>
-      </c>
-      <c r="P41" s="9">
+        <v>1</v>
+      </c>
+      <c r="P41" s="8">
         <f>COUNTIF(C10:I10,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q41" s="1">
         <f>COUNTIF(C2:I2,1)</f>
-        <v>0</v>
-      </c>
-      <c r="R41" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="R41" s="11">
+        <f>SUM(L41:Q41)</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="3" t="s">
@@ -6129,37 +8375,43 @@
         <v>0.59855005738041644</v>
       </c>
       <c r="H42" s="1">
-        <v>0.3947557373979127</v>
-      </c>
-      <c r="I42" s="1"/>
+        <v>0.7895114747958254</v>
+      </c>
+      <c r="I42" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="K42" s="3" t="s">
         <v>61</v>
       </c>
       <c r="L42" s="1">
-        <f t="shared" ref="L42:L48" si="0">COUNTIF(C43:I43,1)</f>
-        <v>0</v>
+        <f t="shared" ref="L42:L48" si="1">COUNTIF(C43:I43,1)</f>
+        <v>1</v>
       </c>
       <c r="M42" s="1">
-        <f t="shared" ref="M42:M48" si="1">COUNTIF(C35:I35,1)</f>
-        <v>0</v>
+        <f t="shared" ref="M42:M48" si="2">COUNTIF(C35:I35,1)</f>
+        <v>1</v>
       </c>
       <c r="N42" s="1">
-        <f t="shared" ref="N42:N48" si="2">COUNTIF(C27:I27,1)</f>
-        <v>0</v>
+        <f t="shared" ref="N42:N48" si="3">COUNTIF(C27:I27,1)</f>
+        <v>1</v>
       </c>
       <c r="O42" s="1">
-        <f t="shared" ref="O42:O48" si="3">COUNTIF(C19:I19,1)</f>
-        <v>0</v>
-      </c>
-      <c r="P42" s="9">
-        <f t="shared" ref="P42:P48" si="4">COUNTIF(C11:I11,1)</f>
-        <v>0</v>
+        <f t="shared" ref="O42:O48" si="4">COUNTIF(C19:I19,1)</f>
+        <v>1</v>
+      </c>
+      <c r="P42" s="8">
+        <f t="shared" ref="P42:P48" si="5">COUNTIF(C11:I11,1)</f>
+        <v>1</v>
       </c>
       <c r="Q42" s="1">
         <f>COUNTIF(C3:I3,1)</f>
-        <v>0</v>
-      </c>
-      <c r="R42" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="R42" s="11">
+        <f t="shared" ref="R42:R48" si="6">SUM(L42:Q42)</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="3" t="s">
@@ -6184,37 +8436,43 @@
         <v>0.31454185564892079</v>
       </c>
       <c r="H43" s="1">
-        <v>0.54035234556580913</v>
-      </c>
-      <c r="I43" s="1"/>
+        <v>0.81052851834871342</v>
+      </c>
+      <c r="I43" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="K43" s="3" t="s">
         <v>62</v>
       </c>
       <c r="L43" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="M43" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="N43" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="O43" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P43" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="P43" s="8">
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="Q43" s="1">
         <f>COUNTIF(C4:I4,1)</f>
-        <v>0</v>
-      </c>
-      <c r="R43" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="R43" s="11">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="3" t="s">
@@ -6239,37 +8497,43 @@
         <v>0.50823728847219252</v>
       </c>
       <c r="H44" s="1">
-        <v>0.33554845330078154</v>
-      </c>
-      <c r="I44" s="1"/>
+        <v>0.67109690660156307</v>
+      </c>
+      <c r="I44" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="K44" s="3" t="s">
         <v>63</v>
       </c>
       <c r="L44" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="M44" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="N44" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="O44" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P44" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="P44" s="8">
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="Q44" s="1">
         <f>COUNTIF(C5:I5,1)</f>
-        <v>0</v>
-      </c>
-      <c r="R44" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="R44" s="11">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="3" t="s">
@@ -6294,37 +8558,43 @@
         <v>0.50573635434746067</v>
       </c>
       <c r="H45" s="1">
-        <v>0.3947557373979127</v>
-      </c>
-      <c r="I45" s="1"/>
+        <v>0.7895114747958254</v>
+      </c>
+      <c r="I45" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="K45" s="3" t="s">
         <v>64</v>
       </c>
       <c r="L45" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="M45" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="N45" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="O45" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P45" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="P45" s="8">
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="Q45" s="1">
-        <f t="shared" ref="Q45:Q48" si="5">COUNTIF(C6:I6,1)</f>
-        <v>0</v>
-      </c>
-      <c r="R45" s="10"/>
+        <f t="shared" ref="Q45:Q48" si="7">COUNTIF(C6:I6,1)</f>
+        <v>1</v>
+      </c>
+      <c r="R45" s="11">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="3" t="s">
@@ -6349,37 +8619,43 @@
         <v>0.52832165173327073</v>
       </c>
       <c r="H46" s="1">
-        <v>0.39475573739791259</v>
-      </c>
-      <c r="I46" s="1"/>
+        <v>0.78951147479582517</v>
+      </c>
+      <c r="I46" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="K46" s="3" t="s">
         <v>65</v>
       </c>
       <c r="L46" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="M46" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="N46" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="O46" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P46" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="P46" s="8">
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="Q46" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="R46" s="10"/>
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="R46" s="11">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="3" t="s">
@@ -6404,37 +8680,43 @@
         <v>0.63822578149180498</v>
       </c>
       <c r="H47" s="1">
-        <v>0.526340983197217</v>
-      </c>
-      <c r="I47" s="1"/>
+        <v>0.7895114747958254</v>
+      </c>
+      <c r="I47" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="K47" s="3" t="s">
         <v>66</v>
       </c>
       <c r="L47" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="M47" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="N47" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="O47" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P47" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="P47" s="8">
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="Q47" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="R47" s="10"/>
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="R47" s="11">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="3" t="s">
@@ -6459,37 +8741,43 @@
         <v>0.39353231167125691</v>
       </c>
       <c r="H48" s="1">
-        <v>0.526340983197217</v>
-      </c>
-      <c r="I48" s="1"/>
+        <v>0.78951147479582517</v>
+      </c>
+      <c r="I48" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="K48" s="3" t="s">
         <v>67</v>
       </c>
       <c r="L48" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="M48" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="N48" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="O48" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P48" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="P48" s="8">
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="Q48" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="R48" s="10"/>
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="R48" s="11">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="3" t="s">
@@ -6514,14 +8802,228 @@
         <v>0.63822578149180498</v>
       </c>
       <c r="H49" s="1">
-        <v>0.526340983197217</v>
-      </c>
-      <c r="I49" s="1"/>
+        <v>0.7895114747958254</v>
+      </c>
+      <c r="I49" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="L49" s="11">
+        <f>SUM(L41:L48)</f>
+        <v>8</v>
+      </c>
+      <c r="M49" s="11">
+        <f t="shared" ref="M49:Q49" si="8">SUM(M41:M48)</f>
+        <v>8</v>
+      </c>
+      <c r="N49" s="11">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="O49" s="11">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="P49" s="11">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="Q49" s="11">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="R49" s="12"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B51" s="10"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="6"/>
+      <c r="B52" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B53" s="13">
+        <v>0.80105843189144643</v>
+      </c>
+      <c r="C53" s="13">
+        <v>0.86404750908334538</v>
+      </c>
+      <c r="D53" s="13">
+        <v>0.94875036944847868</v>
+      </c>
+      <c r="E53" s="13">
+        <v>1.1333838532301423</v>
+      </c>
+      <c r="F53" s="13">
+        <v>0.63794759826106129</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B54" s="13">
+        <v>0.62948567194311833</v>
+      </c>
+      <c r="C54" s="13">
+        <v>1.105846812050997</v>
+      </c>
+      <c r="D54" s="13">
+        <v>1.1859379618105985</v>
+      </c>
+      <c r="E54" s="13">
+        <v>1.1333838532301423</v>
+      </c>
+      <c r="F54" s="13">
+        <v>0.63794759826106129</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B55" s="13">
+        <v>0.32851993902083654</v>
+      </c>
+      <c r="C55" s="13">
+        <v>0.31388119382435026</v>
+      </c>
+      <c r="D55" s="13">
+        <v>0.39727427344276117</v>
+      </c>
+      <c r="E55" s="13">
+        <v>0.39775578480104756</v>
+      </c>
+      <c r="F55" s="13">
+        <v>0.3506652849380133</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B56" s="13">
+        <v>0.84760572808338697</v>
+      </c>
+      <c r="C56" s="13">
+        <v>0.87774144461039538</v>
+      </c>
+      <c r="D56" s="13">
+        <v>0.94875036944847868</v>
+      </c>
+      <c r="E56" s="13">
+        <v>1.1296260575512764</v>
+      </c>
+      <c r="F56" s="13">
+        <v>0.69164813372359202</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B57" s="13">
+        <v>0.056328359888789009</v>
+      </c>
+      <c r="C57" s="13">
+        <v>6.9321738600301313</v>
+      </c>
+      <c r="D57" s="13">
+        <v>111817007.82785644</v>
+      </c>
+      <c r="E57" s="13">
+        <v>1.1296260575512764</v>
+      </c>
+      <c r="F57" s="13">
+        <v>0.69164813372359202</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B58" s="13">
+        <v>0</v>
+      </c>
+      <c r="C58" s="13">
+        <v>0.67514842745044168</v>
+      </c>
+      <c r="D58" s="13">
+        <v>0.92645013824199707</v>
+      </c>
+      <c r="E58" s="13">
+        <v>1.1333838532301423</v>
+      </c>
+      <c r="F58" s="13">
+        <v>0.63794759826106129</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B59" s="13">
+        <v>0</v>
+      </c>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13">
+        <v>1.1759636538195002</v>
+      </c>
+      <c r="E59" s="13">
+        <v>1.1333838532301423</v>
+      </c>
+      <c r="F59" s="13">
+        <v>0.63794759826106129</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B60" s="13">
+        <v>0.74197735730590397</v>
+      </c>
+      <c r="C60" s="13">
+        <v>0.90349602847404176</v>
+      </c>
+      <c r="D60" s="13">
+        <v>0.99607019717853384</v>
+      </c>
+      <c r="E60" s="13">
+        <v>1.1448612754662759</v>
+      </c>
+      <c r="F60" s="13">
+        <v>0.62737297657483171</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="K23:L23"/>
     <mergeCell ref="K39:M39"/>
+    <mergeCell ref="A51:B51"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:I49">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
